--- a/runtime_dev/apps/delphes91/delphes91.xlsx
+++ b/runtime_dev/apps/delphes91/delphes91.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes91/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D59D56B-09AD-DD4E-B509-45B321C2D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837D3E2-F538-304E-9331-5231064B8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="33600" windowHeight="18860" tabRatio="973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -1446,9 +1446,6 @@
     <t>The applicant has selected the intention "Other"</t>
   </si>
   <si>
-    <t>runtime.apps.delphes94.decision_engine</t>
-  </si>
-  <si>
     <t>15/09/2025</t>
   </si>
   <si>
@@ -1575,6 +1572,9 @@
 Préfecture de l'Essonne
 Direction des migrations et de l'intégration</t>
     </r>
+  </si>
+  <si>
+    <t>runtime.apps.delphes91.decision_engine</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2704,7 +2704,7 @@
         <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>258</v>
@@ -2823,7 +2823,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2932,7 +2932,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -2949,7 +2949,7 @@
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -2960,13 +2960,13 @@
         <v>342</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2977,13 +2977,13 @@
         <v>394</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>395</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3325,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3644,7 +3644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BFE2A-0793-449F-9ABD-C5435ECE1E33}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3694,7 +3694,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4145,7 +4145,7 @@
         <v>237</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>84</v>
@@ -4463,7 +4463,7 @@
         <v>237</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>284</v>
